--- a/Masterarbeit_daten/Appendix/Decision fusion matrix.xlsx
+++ b/Masterarbeit_daten/Appendix/Decision fusion matrix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>SMD Resistor 0806</t>
   </si>
@@ -48,9 +48,6 @@
     <t>QFP100</t>
   </si>
   <si>
-    <t>Undefined</t>
-  </si>
-  <si>
     <t>Resistor Network array 1206</t>
   </si>
   <si>
@@ -65,12 +62,18 @@
   <si>
     <t>Resistor 0806</t>
   </si>
+  <si>
+    <t>True class/       Predicted class</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +96,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -102,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,11 +135,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -141,6 +166,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,806 +474,826 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="12" max="13" width="5.5703125" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16" width="6" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="P1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>39</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
         <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>65</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>0</v>
       </c>
       <c r="D4" s="3">
         <v>20</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
         <v>2</v>
       </c>
       <c r="E5" s="3">
         <v>53</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
         <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>11</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
         <v>0</v>
       </c>
       <c r="G7" s="3">
         <v>9</v>
       </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>11</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
         <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>15</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
         <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>6</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
         <v>3</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
         <v>0</v>
       </c>
       <c r="K11" s="3">
         <v>23</v>
       </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
         <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>7</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
         <v>0</v>
       </c>
       <c r="M13" s="3">
         <v>13</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
         <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
         <v>0</v>
       </c>
       <c r="O15" s="3">
         <v>16</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
         <v>0</v>
       </c>
       <c r="P16" s="3">
@@ -1250,7 +1302,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
